--- a/biology/Zoologie/Havana_brown/Havana_brown.xlsx
+++ b/biology/Zoologie/Havana_brown/Havana_brown.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le havana brown, également appelé Swiss Mountain cat ou Chestnut Oriental Shorthair est une race de chat originaire de Grande-Bretagne, au Royaume-Uni. Ce chat est caractérisé par sa robe à poils courts de couleur chocolat.
@@ -514,16 +526,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les premiers chats chocolats
-Les ancêtres du havana brown existaient à l'époque du royaume du Siam (actuelle Thaïlande), probablement des Burmese ou des Tonkinois, leur couleur était appréciée et on disait qu'ils éloignaient les esprits du mal.
+          <t>Les premiers chats chocolats</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ancêtres du havana brown existaient à l'époque du royaume du Siam (actuelle Thaïlande), probablement des Burmese ou des Tonkinois, leur couleur était appréciée et on disait qu'ils éloignaient les esprits du mal.
 Plus tard, au XIXe siècle et vers 1880, plusieurs chats à robe brune caractéristique furent exposés et appréciés du grand public sans qu'aucune suite ne fût accordée à ces chats.
 C'est seulement en 1950 que la baronne Von Ullman, qui désirait un chat à la robe brun chocolat fit croiser un Siamois chocolate point à un Européen noir. Les chatons nés de cette union étaient une réussite et d'autres éleveurs en firent autant.
-Des origines de siamois
-Au début de l'élevage du siamois, la race accepte tous les patrons. Dans les années 1920, les clubs d'élevage du siamois en Grande-Bretagne décident de se concentrer uniquement sur le colourpoint et les autres variétés de couleurs ont commencé à disparaître. Après la Seconde Guerre mondiale, les programmes d'élevage visant à introduire la couleur chocolat ont pour conséquence la réapparition du patron uni[1]. 
-Initialement, chaque nouvelle couleur solide est devenue une nouvelle race[2],[3] : le Chestnut brown foreign, de couleur uni chocolat, est la première race reconnue par la GCCF en 1958 et donnera naissance au havana[4], suivi du Lavender, de couleur unie lilas puis du foreign white de couleur entièrement blanche[5].
-Les éleveurs s'aperçoivent rapidement qu'il n'est pas réaliste de continuer sur le modèle « une couleur, une race », étant donné l'important nombre de couleurs de robe existant chez le chat[2],[3]. Au Royaume-Uni, il est décidé de scinder la race siamoise en plusieurs races[6] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Havana_brown</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Havana_brown</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Origines</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Des origines de siamois</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début de l'élevage du siamois, la race accepte tous les patrons. Dans les années 1920, les clubs d'élevage du siamois en Grande-Bretagne décident de se concentrer uniquement sur le colourpoint et les autres variétés de couleurs ont commencé à disparaître. Après la Seconde Guerre mondiale, les programmes d'élevage visant à introduire la couleur chocolat ont pour conséquence la réapparition du patron uni. 
+Initialement, chaque nouvelle couleur solide est devenue une nouvelle race, : le Chestnut brown foreign, de couleur uni chocolat, est la première race reconnue par la GCCF en 1958 et donnera naissance au havana, suivi du Lavender, de couleur unie lilas puis du foreign white de couleur entièrement blanche.
+Les éleveurs s'aperçoivent rapidement qu'il n'est pas réaliste de continuer sur le modèle « une couleur, une race », étant donné l'important nombre de couleurs de robe existant chez le chat,. Au Royaume-Uni, il est décidé de scinder la race siamoise en plusieurs races :
 les sujets colourpoint sont des siamois ;
-les sujets solides chocolats des Chestnut brown foreign ou Havana. Importée aux États-Unis, cette race a donné naissance au havana brown[7] ;
+les sujets solides chocolats des Chestnut brown foreign ou Havana. Importée aux États-Unis, cette race a donné naissance au havana brown ;
 les foreigns[Note 1] représentent les couleurs solides qui ne sont pas chocolat et comprennent le foreign white ;
 l'oriental shorthair contient toutes les autres couleurs.
 Les Anglais reconnurent la race rapidement sous le nom d'havana brown. On ne sait pas exactement pourquoi ce nom, peut-être est-ce en rapport avec la robe d'un lapin du même nom, ou pour la couleur des fameux cigares.
@@ -534,31 +586,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Havana_brown</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Havana_brown</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Description pour le type américain :
 Le corps est rectangulaire et bien musclé, les pattes sont longues et ont une ossature robuste tout en restant élégantes. Les pieds sont ovales et compacts. La queue de longueur moyenne est assez fine.
@@ -572,37 +626,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Havana_brown</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Havana_brown</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Caractère</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On dit du havana brown que c'est un chat curieux, vif et joueur mais appréciant le confort de son foyer. Il aimerait bien "discuter" de temps en temps avec ses propriétaires. Il a un grand besoin d'amour et d'affection. Il recherche toujours le contact physique avec son compagnon humain.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -624,10 +647,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Caractère</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On dit du havana brown que c'est un chat curieux, vif et joueur mais appréciant le confort de son foyer. Il aimerait bien "discuter" de temps en temps avec ses propriétaires. Il a un grand besoin d'amour et d'affection. Il recherche toujours le contact physique avec son compagnon humain.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Havana_brown</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Havana_brown</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Club Européen</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 2011, il existe un club européen sur le Havana Brown.
 </t>
